--- a/Data/EC/NIT-9000832838.xlsx
+++ b/Data/EC/NIT-9000832838.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE22A91C-BE94-403A-97AC-34C9AD4DDF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{976A908C-4A17-4E1D-B6EB-6659A653FA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6DDDB0D2-40DF-4257-9EC9-EAF081BEB0B1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2707F290-4507-47AD-A197-31469CECEBF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,85 +65,91 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73163175</t>
+  </si>
+  <si>
+    <t>JESUS MARIA MEZA JACKSON</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>9271328</t>
+  </si>
+  <si>
+    <t>ALVARO RUIZ OLIVEROS</t>
+  </si>
+  <si>
+    <t>73183653</t>
+  </si>
+  <si>
+    <t>GABRIEL ENRIQUE VASQUEZ REYES</t>
+  </si>
+  <si>
+    <t>1047460323</t>
+  </si>
+  <si>
+    <t>PEDRO LUIS VASQUEZ REYES</t>
+  </si>
+  <si>
+    <t>1143401546</t>
+  </si>
+  <si>
+    <t>YOVANIS MORALES CASTELLAR</t>
+  </si>
+  <si>
+    <t>1047495328</t>
+  </si>
+  <si>
+    <t>JESUS RAFAEL ANILLO RIOS</t>
+  </si>
+  <si>
+    <t>1047488768</t>
+  </si>
+  <si>
+    <t>GERMAIN BARRAGAN CAMPILLO</t>
+  </si>
+  <si>
     <t>107389299</t>
   </si>
   <si>
     <t>GUSTAVO ADOLFO VARGAS GONZALEZ</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>73163175</t>
-  </si>
-  <si>
-    <t>JESUS MARIA MEZA JACKSON</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>9271328</t>
-  </si>
-  <si>
-    <t>ALVARO RUIZ OLIVEROS</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>1047460323</t>
-  </si>
-  <si>
-    <t>PEDRO LUIS VASQUEZ REYES</t>
-  </si>
-  <si>
-    <t>1047495328</t>
-  </si>
-  <si>
-    <t>JESUS RAFAEL ANILLO RIOS</t>
-  </si>
-  <si>
-    <t>1143401546</t>
-  </si>
-  <si>
-    <t>YOVANIS MORALES CASTELLAR</t>
-  </si>
-  <si>
-    <t>1047488768</t>
-  </si>
-  <si>
-    <t>GERMAIN BARRAGAN CAMPILLO</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -557,7 +563,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA7ADE1F-9A28-A734-2B2B-7FB3541832AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF32FB87-3EB8-CAEE-CE11-D26F9A3D6C75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -908,8 +914,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE4D831-CA27-4E58-89AE-5022767C3591}">
-  <dimension ref="B2:J41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2AC66A-BB5F-4536-8BDC-7B7ABA84F011}">
+  <dimension ref="B2:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -933,7 +939,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -978,7 +984,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1010,12 +1016,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>665958</v>
+        <v>701070</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1026,14 +1032,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F13" s="5">
         <v>13</v>
@@ -1063,13 +1069,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1086,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>19897</v>
+        <v>29260</v>
       </c>
       <c r="G16" s="18">
         <v>877803</v>
@@ -1100,16 +1106,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>19897</v>
+        <v>35112</v>
       </c>
       <c r="G17" s="18">
         <v>877803</v>
@@ -1129,7 +1135,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>35112</v>
@@ -1146,10 +1152,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1169,10 +1175,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
@@ -1192,10 +1198,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -1215,19 +1221,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F22" s="18">
         <v>35112</v>
       </c>
       <c r="G22" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1238,19 +1244,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>35112</v>
       </c>
       <c r="G23" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1261,10 +1267,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>19</v>
@@ -1284,19 +1290,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
       </c>
       <c r="G25" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1307,19 +1313,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
       </c>
       <c r="G26" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1330,19 +1336,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>35112</v>
       </c>
       <c r="G27" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1353,16 +1359,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>35112</v>
+        <v>19897</v>
       </c>
       <c r="G28" s="18">
         <v>877803</v>
@@ -1376,19 +1382,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
       </c>
       <c r="G29" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1399,19 +1405,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F30" s="18">
         <v>35112</v>
       </c>
       <c r="G30" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1422,19 +1428,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F31" s="18">
         <v>35112</v>
       </c>
       <c r="G31" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1445,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F32" s="18">
         <v>35112</v>
       </c>
       <c r="G32" s="18">
-        <v>877803</v>
+        <v>1423500</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1468,19 +1474,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F33" s="18">
         <v>35112</v>
       </c>
       <c r="G33" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1491,75 +1497,98 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F34" s="18">
         <v>35112</v>
       </c>
       <c r="G34" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="24">
-        <v>29260</v>
-      </c>
-      <c r="G35" s="24">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G35" s="18">
         <v>877803</v>
       </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="26"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="32"/>
-      <c r="H40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="24">
+        <v>19897</v>
+      </c>
+      <c r="G36" s="24">
+        <v>877803</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C41" s="32"/>
       <c r="H41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="32"/>
+      <c r="H42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H42:J42"/>
     <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H40:J40"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9000832838.xlsx
+++ b/Data/EC/NIT-9000832838.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{976A908C-4A17-4E1D-B6EB-6659A653FA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F6268C4-F2C4-4C82-81B9-64E8B35970F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2707F290-4507-47AD-A197-31469CECEBF4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{038F3F40-B25F-4D88-962E-A84B5B3DDAA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,85 +71,79 @@
     <t>JESUS MARIA MEZA JACKSON</t>
   </si>
   <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>107389299</t>
+  </si>
+  <si>
+    <t>GUSTAVO ADOLFO VARGAS GONZALEZ</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>9271328</t>
+  </si>
+  <si>
+    <t>ALVARO RUIZ OLIVEROS</t>
+  </si>
+  <si>
+    <t>1047460323</t>
+  </si>
+  <si>
+    <t>PEDRO LUIS VASQUEZ REYES</t>
+  </si>
+  <si>
+    <t>1143401546</t>
+  </si>
+  <si>
+    <t>YOVANIS MORALES CASTELLAR</t>
+  </si>
+  <si>
+    <t>1047495328</t>
+  </si>
+  <si>
+    <t>JESUS RAFAEL ANILLO RIOS</t>
+  </si>
+  <si>
+    <t>1047488768</t>
+  </si>
+  <si>
+    <t>GERMAIN BARRAGAN CAMPILLO</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
     <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>9271328</t>
-  </si>
-  <si>
-    <t>ALVARO RUIZ OLIVEROS</t>
-  </si>
-  <si>
-    <t>73183653</t>
-  </si>
-  <si>
-    <t>GABRIEL ENRIQUE VASQUEZ REYES</t>
-  </si>
-  <si>
-    <t>1047460323</t>
-  </si>
-  <si>
-    <t>PEDRO LUIS VASQUEZ REYES</t>
-  </si>
-  <si>
-    <t>1143401546</t>
-  </si>
-  <si>
-    <t>YOVANIS MORALES CASTELLAR</t>
-  </si>
-  <si>
-    <t>1047495328</t>
-  </si>
-  <si>
-    <t>JESUS RAFAEL ANILLO RIOS</t>
-  </si>
-  <si>
-    <t>1047488768</t>
-  </si>
-  <si>
-    <t>GERMAIN BARRAGAN CAMPILLO</t>
-  </si>
-  <si>
-    <t>107389299</t>
-  </si>
-  <si>
-    <t>GUSTAVO ADOLFO VARGAS GONZALEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -248,7 +242,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -261,9 +257,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -463,23 +457,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,10 +501,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -563,7 +557,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF32FB87-3EB8-CAEE-CE11-D26F9A3D6C75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F94F7561-42D4-4AC4-97BE-B6B66756F9E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -914,8 +908,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2AC66A-BB5F-4536-8BDC-7B7ABA84F011}">
-  <dimension ref="B2:J42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE15B30C-AE5E-404E-A4F9-1B1BA6C6F064}">
+  <dimension ref="B2:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -939,7 +933,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -984,7 +978,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1016,12 +1010,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>701070</v>
+        <v>665958</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1032,14 +1026,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" s="5">
         <v>13</v>
@@ -1069,13 +1063,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1092,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29260</v>
+        <v>19897</v>
       </c>
       <c r="G16" s="18">
         <v>877803</v>
@@ -1106,16 +1100,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>35112</v>
+        <v>19897</v>
       </c>
       <c r="G17" s="18">
         <v>877803</v>
@@ -1135,7 +1129,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>35112</v>
@@ -1152,10 +1146,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1244,13 +1238,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
         <v>35112</v>
@@ -1267,13 +1261,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
@@ -1290,13 +1284,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
@@ -1313,19 +1307,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
       </c>
       <c r="G26" s="18">
-        <v>877803</v>
+        <v>900000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1336,13 +1330,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F27" s="18">
         <v>35112</v>
@@ -1365,10 +1359,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
-        <v>19897</v>
+        <v>35112</v>
       </c>
       <c r="G28" s="18">
         <v>877803</v>
@@ -1382,19 +1376,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
       </c>
       <c r="G29" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1405,19 +1399,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F30" s="18">
         <v>35112</v>
       </c>
       <c r="G30" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1428,19 +1422,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F31" s="18">
         <v>35112</v>
       </c>
       <c r="G31" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1451,19 +1445,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F32" s="18">
         <v>35112</v>
       </c>
       <c r="G32" s="18">
-        <v>1423500</v>
+        <v>877803</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1474,19 +1468,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F33" s="18">
         <v>35112</v>
       </c>
       <c r="G33" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1497,98 +1491,75 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F34" s="18">
         <v>35112</v>
       </c>
       <c r="G34" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G35" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="24">
-        <v>19897</v>
-      </c>
-      <c r="G36" s="24">
-        <v>877803</v>
-      </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="26"/>
+      <c r="B35" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="24">
+        <v>29260</v>
+      </c>
+      <c r="G35" s="24">
+        <v>877803</v>
+      </c>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="26"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="H40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C41" s="32"/>
       <c r="H41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="H42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H40:J40"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9000832838.xlsx
+++ b/Data/EC/NIT-9000832838.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F6268C4-F2C4-4C82-81B9-64E8B35970F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69B5875A-CF22-48D0-A27B-5E579F3F5F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{038F3F40-B25F-4D88-962E-A84B5B3DDAA2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AEA745ED-66CB-4DA2-9A57-70A3C0BD5A55}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -242,9 +242,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -257,7 +255,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -451,29 +451,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,19 +492,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,7 +563,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F94F7561-42D4-4AC4-97BE-B6B66756F9E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D9F625-19F6-7AB9-D33F-FC427BBB751E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -908,7 +914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE15B30C-AE5E-404E-A4F9-1B1BA6C6F064}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A24096-F40C-464D-989D-185160EB1793}">
   <dimension ref="B2:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -931,49 +937,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -981,7 +987,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -997,7 +1003,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9000832838</v>
       </c>
@@ -1013,7 +1019,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>665958</v>
       </c>
@@ -1082,18 +1088,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>19897</v>
       </c>
-      <c r="G16" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="G16" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1105,18 +1111,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>19897</v>
       </c>
-      <c r="G17" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="G17" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1128,18 +1134,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G18" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G18" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1151,18 +1157,18 @@
       <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G19" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G19" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1174,18 +1180,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G20" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G20" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1197,18 +1203,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G21" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G21" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1220,18 +1226,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G22" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G22" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1243,18 +1249,18 @@
       <c r="D23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G23" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G23" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1266,18 +1272,18 @@
       <c r="D24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G24" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G24" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1289,18 +1295,18 @@
       <c r="D25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G25" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G25" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1312,18 +1318,18 @@
       <c r="D26" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G26" s="18">
+      <c r="F26" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G26" s="19">
         <v>900000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1335,18 +1341,18 @@
       <c r="D27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G27" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G27" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1358,18 +1364,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G28" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G28" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1381,18 +1387,18 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G29" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G29" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1404,18 +1410,18 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G30" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G30" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1427,18 +1433,18 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G31" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G31" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1450,18 +1456,18 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G32" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G32" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1473,18 +1479,18 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G33" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G33" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1496,47 +1502,47 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G34" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>35112</v>
+      </c>
+      <c r="G34" s="19">
+        <v>877803</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="22" t="s">
+      <c r="B35" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="26">
         <v>29260</v>
       </c>
-      <c r="G35" s="24">
-        <v>877803</v>
-      </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="26"/>
+      <c r="G35" s="26">
+        <v>877803</v>
+      </c>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="28"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="32"/>
+      <c r="C40" s="34"/>
       <c r="H40" s="1" t="s">
         <v>45</v>
       </c>
@@ -1544,10 +1550,10 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="32"/>
+      <c r="C41" s="34"/>
       <c r="H41" s="1" t="s">
         <v>46</v>
       </c>
